--- a/Data/loan_data.xlsx
+++ b/Data/loan_data.xlsx
@@ -20550,8 +20550,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100753562A7F8CAFB43942423E6A5E04770" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a376d4a0d0f52cb5ac249cf11ad9a460">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfd82559-97a2-4871-a676-597bf1b13ee5" xmlns:ns3="9066b849-06aa-4701-991f-7f0c0f6dedc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21241462057b6fd1c4a89b704aeaebb0" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100753562A7F8CAFB43942423E6A5E04770" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fcf8e7d4b86d6fc5250fb6ea9bb08b1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dfd82559-97a2-4871-a676-597bf1b13ee5" xmlns:ns3="9066b849-06aa-4701-991f-7f0c0f6dedc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b283ee3e36f7d1d07b19370562d8b7a" ns2:_="" ns3:_="">
     <xsd:import namespace="dfd82559-97a2-4871-a676-597bf1b13ee5"/>
     <xsd:import namespace="9066b849-06aa-4701-991f-7f0c0f6dedc9"/>
     <xsd:element name="properties">
@@ -20570,7 +20570,6 @@
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -20616,11 +20615,6 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="19" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -20787,7 +20781,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7ED5982E-5701-47EE-AD96-FAECB6F6338C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821678B8-276B-4E00-8CFA-E8812BB5BED6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
